--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R870f00a439224849"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R82bf84c6360643b8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -187,7 +187,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R349326d5fba74298"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R26f417f830fc4172"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -264,6 +264,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3e1e68df8fd04104"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9c6c38f0c7e24952"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R82bf84c6360643b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rd1f540a2673c48d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -187,7 +187,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R26f417f830fc4172"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf53e26153cbe4d70"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -264,6 +264,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9c6c38f0c7e24952"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R23f1c3d97976422a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rd1f540a2673c48d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R0f4924f280654cf2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -187,7 +187,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf53e26153cbe4d70"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra109422c309f4cf7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -264,6 +264,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R23f1c3d97976422a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfe31743d1a8e4cb4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R0f4924f280654cf2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R9ac0214630124b8a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -187,7 +187,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra109422c309f4cf7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0237da8f66014bdc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -264,6 +264,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfe31743d1a8e4cb4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R288e1cec8ff947bf"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R9ac0214630124b8a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R000d5696b04f4d1a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -187,7 +187,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0237da8f66014bdc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R830a5003c0cd4f6f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -264,6 +264,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R288e1cec8ff947bf"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc7aeb497c4054877"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R000d5696b04f4d1a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Reba8cfb72c34437f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -187,7 +187,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R830a5003c0cd4f6f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re805073dafb149f8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -264,6 +264,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc7aeb497c4054877"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf31c481e05854bc4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Reba8cfb72c34437f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rb51fde7d5dc14522"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -187,7 +187,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re805073dafb149f8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcbd93f29a25d4b65"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -264,6 +264,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf31c481e05854bc4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0d336d504723438c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rb51fde7d5dc14522"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R22799797ee5c458a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -187,7 +187,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcbd93f29a25d4b65"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf9ebb54690ef4f9e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -264,6 +264,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0d336d504723438c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Raf8ab56085ca423b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R22799797ee5c458a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rf977a763378e4788"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -187,7 +187,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf9ebb54690ef4f9e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3f74df44c22b44f2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -264,6 +264,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Raf8ab56085ca423b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra2e47233a75645c7"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rf977a763378e4788"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R3e4131347f4441e2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -187,7 +187,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3f74df44c22b44f2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Refe88c7011b0405d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -264,6 +264,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra2e47233a75645c7"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rac86af6366aa4f79"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R3e4131347f4441e2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rb55f195d1b5c4e20"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -187,7 +187,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Refe88c7011b0405d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R422010f415c54cfb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -264,6 +264,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rac86af6366aa4f79"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R18f41be1adec42b6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rb55f195d1b5c4e20"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R42cb39f6c36848c2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -187,7 +187,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R422010f415c54cfb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb8f4592fba9d4a4e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -264,6 +264,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R18f41be1adec42b6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7ffc72f1db1242af"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/044_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R42cb39f6c36848c2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R23a389bb5f6e47a3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -187,7 +187,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb8f4592fba9d4a4e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdb5d03dcb05b4e19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -264,6 +264,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7ffc72f1db1242af"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R327e78fb0adf48f7"/>
 </x:worksheet>
 </file>